--- a/Team-Data/2011-12/3-3-2011-12.xlsx
+++ b/Team-Data/2011-12/3-3-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,37 +733,37 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" t="n">
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>0.595</v>
+        <v>0.583</v>
       </c>
       <c r="H2" t="n">
         <v>48.8</v>
       </c>
       <c r="I2" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J2" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K2" t="n">
         <v>0.438</v>
       </c>
       <c r="L2" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M2" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.375</v>
+        <v>0.372</v>
       </c>
       <c r="O2" t="n">
         <v>15</v>
@@ -705,16 +772,16 @@
         <v>20.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.718</v>
+        <v>0.719</v>
       </c>
       <c r="R2" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S2" t="n">
         <v>31.6</v>
       </c>
       <c r="T2" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U2" t="n">
         <v>21.6</v>
@@ -726,34 +793,34 @@
         <v>8.1</v>
       </c>
       <c r="X2" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>17.6</v>
+        <v>17.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF2" t="n">
         <v>9</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
@@ -762,10 +829,10 @@
         <v>18</v>
       </c>
       <c r="AJ2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL2" t="n">
         <v>7</v>
@@ -780,7 +847,7 @@
         <v>29</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ2" t="n">
         <v>27</v>
@@ -789,37 +856,37 @@
         <v>24</v>
       </c>
       <c r="AS2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW2" t="n">
         <v>12</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>16</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>13</v>
       </c>
       <c r="AX2" t="n">
         <v>18</v>
       </c>
       <c r="AY2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AZ2" t="n">
         <v>3</v>
       </c>
       <c r="BA2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB2" t="n">
         <v>23</v>
       </c>
       <c r="BC2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-3-2011-12</t>
+          <t>2012-03-03</t>
         </is>
       </c>
     </row>
@@ -926,10 +993,10 @@
         <v>1.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="n">
         <v>14</v>
@@ -953,7 +1020,7 @@
         <v>20</v>
       </c>
       <c r="AM3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN3" t="n">
         <v>7</v>
@@ -971,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
@@ -986,10 +1053,10 @@
         <v>28</v>
       </c>
       <c r="AX3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>21</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-3-2011-12</t>
+          <t>2012-03-03</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-14.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1144,7 +1211,7 @@
         <v>27</v>
       </c>
       <c r="AP4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
         <v>26</v>
@@ -1162,13 +1229,13 @@
         <v>22</v>
       </c>
       <c r="AV4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW4" t="n">
         <v>30</v>
       </c>
       <c r="AX4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY4" t="n">
         <v>25</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-3-2011-12</t>
+          <t>2012-03-03</t>
         </is>
       </c>
     </row>
@@ -1296,10 +1363,10 @@
         <v>1</v>
       </c>
       <c r="AF5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH5" t="n">
         <v>29</v>
@@ -1353,7 +1420,7 @@
         <v>6</v>
       </c>
       <c r="AY5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ5" t="n">
         <v>2</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-3-2011-12</t>
+          <t>2012-03-03</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" t="n">
-        <v>0.371</v>
+        <v>0.382</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
@@ -1412,13 +1479,13 @@
         <v>34.5</v>
       </c>
       <c r="J6" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.426</v>
+        <v>0.425</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M6" t="n">
         <v>19.4</v>
@@ -1433,19 +1500,19 @@
         <v>25.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.694</v>
+        <v>0.696</v>
       </c>
       <c r="R6" t="n">
         <v>13.1</v>
       </c>
       <c r="S6" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T6" t="n">
         <v>43.3</v>
       </c>
       <c r="U6" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V6" t="n">
         <v>15.8</v>
@@ -1457,22 +1524,22 @@
         <v>4.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>-4.4</v>
+        <v>-4.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
         <v>23</v>
@@ -1487,10 +1554,10 @@
         <v>13</v>
       </c>
       <c r="AI6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK6" t="n">
         <v>26</v>
@@ -1517,19 +1584,19 @@
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT6" t="n">
         <v>10</v>
       </c>
       <c r="AU6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV6" t="n">
         <v>26</v>
       </c>
       <c r="AW6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX6" t="n">
         <v>23</v>
@@ -1544,7 +1611,7 @@
         <v>6</v>
       </c>
       <c r="BB6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC6" t="n">
         <v>23</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-3-2011-12</t>
+          <t>2012-03-03</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" t="n">
         <v>16</v>
       </c>
       <c r="G7" t="n">
-        <v>0.579</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
@@ -1594,10 +1661,10 @@
         <v>35.7</v>
       </c>
       <c r="J7" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K7" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L7" t="n">
         <v>7.2</v>
@@ -1606,40 +1673,40 @@
         <v>22.2</v>
       </c>
       <c r="N7" t="n">
-        <v>0.326</v>
+        <v>0.323</v>
       </c>
       <c r="O7" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="P7" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.743</v>
+        <v>0.74</v>
       </c>
       <c r="R7" t="n">
         <v>10.8</v>
       </c>
       <c r="S7" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T7" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U7" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V7" t="n">
         <v>14.6</v>
       </c>
       <c r="W7" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X7" t="n">
         <v>5.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z7" t="n">
         <v>19.4</v>
@@ -1648,16 +1715,16 @@
         <v>18.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>94.2</v>
+        <v>94</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
         <v>12</v>
@@ -1666,16 +1733,16 @@
         <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI7" t="n">
         <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
@@ -1684,13 +1751,13 @@
         <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AP7" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ7" t="n">
         <v>20</v>
@@ -1702,7 +1769,7 @@
         <v>5</v>
       </c>
       <c r="AT7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU7" t="n">
         <v>9</v>
@@ -1714,19 +1781,19 @@
         <v>3</v>
       </c>
       <c r="AX7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY7" t="n">
         <v>4</v>
       </c>
       <c r="AZ7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA7" t="n">
         <v>24</v>
       </c>
       <c r="BB7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-3-2011-12</t>
+          <t>2012-03-03</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>14</v>
@@ -1848,25 +1915,25 @@
         <v>14</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
         <v>3</v>
       </c>
       <c r="AL8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM8" t="n">
         <v>6</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="n">
         <v>3</v>
@@ -1878,7 +1945,7 @@
         <v>22</v>
       </c>
       <c r="AR8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS8" t="n">
         <v>6</v>
@@ -1890,7 +1957,7 @@
         <v>2</v>
       </c>
       <c r="AV8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW8" t="n">
         <v>4</v>
@@ -1911,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-3-2011-12</t>
+          <t>2012-03-03</t>
         </is>
       </c>
     </row>
@@ -1940,103 +2007,103 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" t="n">
         <v>12</v>
       </c>
       <c r="F9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" t="n">
-        <v>0.316</v>
+        <v>0.324</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="J9" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.426</v>
+        <v>0.427</v>
       </c>
       <c r="L9" t="n">
         <v>4.2</v>
       </c>
       <c r="M9" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="N9" t="n">
-        <v>0.328</v>
+        <v>0.33</v>
       </c>
       <c r="O9" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="P9" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R9" t="n">
         <v>12.4</v>
       </c>
       <c r="S9" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="T9" t="n">
         <v>40.2</v>
       </c>
       <c r="U9" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="V9" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="W9" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
         <v>3.9</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>89.09999999999999</v>
+        <v>89.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>-6.9</v>
+        <v>-6.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
       </c>
       <c r="AF9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG9" t="n">
         <v>25</v>
       </c>
       <c r="AH9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI9" t="n">
         <v>27</v>
       </c>
-      <c r="AI9" t="n">
-        <v>28</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK9" t="n">
         <v>25</v>
@@ -2048,7 +2115,7 @@
         <v>27</v>
       </c>
       <c r="AN9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO9" t="n">
         <v>12</v>
@@ -2060,7 +2127,7 @@
         <v>9</v>
       </c>
       <c r="AR9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS9" t="n">
         <v>29</v>
@@ -2072,7 +2139,7 @@
         <v>26</v>
       </c>
       <c r="AV9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW9" t="n">
         <v>25</v>
@@ -2081,10 +2148,10 @@
         <v>30</v>
       </c>
       <c r="AY9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA9" t="n">
         <v>16</v>
@@ -2093,7 +2160,7 @@
         <v>28</v>
       </c>
       <c r="BC9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-3-2011-12</t>
+          <t>2012-03-03</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2273,7 @@
         <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG10" t="n">
         <v>21</v>
@@ -2239,7 +2306,7 @@
         <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR10" t="n">
         <v>20</v>
@@ -2251,7 +2318,7 @@
         <v>27</v>
       </c>
       <c r="AU10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV10" t="n">
         <v>8</v>
@@ -2260,7 +2327,7 @@
         <v>8</v>
       </c>
       <c r="AX10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY10" t="n">
         <v>2</v>
@@ -2275,7 +2342,7 @@
         <v>7</v>
       </c>
       <c r="BC10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-3-2011-12</t>
+          <t>2012-03-03</t>
         </is>
       </c>
     </row>
@@ -2382,16 +2449,16 @@
         <v>0.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
         <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
         <v>9</v>
@@ -2430,10 +2497,10 @@
         <v>19</v>
       </c>
       <c r="AT11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AU11" t="n">
         <v>17</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>18</v>
       </c>
       <c r="AV11" t="n">
         <v>14</v>
@@ -2442,22 +2509,22 @@
         <v>19</v>
       </c>
       <c r="AX11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA11" t="n">
         <v>27</v>
       </c>
       <c r="BB11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-3-2011-12</t>
+          <t>2012-03-03</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" t="n">
         <v>12</v>
       </c>
       <c r="G12" t="n">
-        <v>0.657</v>
+        <v>0.647</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2504,67 +2571,67 @@
         <v>34.9</v>
       </c>
       <c r="J12" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K12" t="n">
         <v>0.43</v>
       </c>
       <c r="L12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M12" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.369</v>
+        <v>0.366</v>
       </c>
       <c r="O12" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="P12" t="n">
-        <v>26.1</v>
+        <v>26</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.779</v>
+        <v>0.781</v>
       </c>
       <c r="R12" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="S12" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T12" t="n">
-        <v>44.5</v>
+        <v>44.4</v>
       </c>
       <c r="U12" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="V12" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W12" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X12" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y12" t="n">
         <v>6.1</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="AA12" t="n">
         <v>21.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>95.90000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -2582,16 +2649,16 @@
         <v>22</v>
       </c>
       <c r="AJ12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK12" t="n">
         <v>24</v>
       </c>
       <c r="AL12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AM12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN12" t="n">
         <v>9</v>
@@ -2612,10 +2679,10 @@
         <v>10</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV12" t="n">
         <v>12</v>
@@ -2624,13 +2691,13 @@
         <v>9</v>
       </c>
       <c r="AX12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA12" t="n">
         <v>5</v>
@@ -2639,7 +2706,7 @@
         <v>13</v>
       </c>
       <c r="BC12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-3-2011-12</t>
+          <t>2012-03-03</t>
         </is>
       </c>
     </row>
@@ -2746,10 +2813,10 @@
         <v>2.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE13" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AF13" t="n">
         <v>6</v>
@@ -2791,10 +2858,10 @@
         <v>12</v>
       </c>
       <c r="AS13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU13" t="n">
         <v>12</v>
@@ -2812,7 +2879,7 @@
         <v>6</v>
       </c>
       <c r="AZ13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA13" t="n">
         <v>4</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-3-2011-12</t>
+          <t>2012-03-03</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2995,10 @@
         <v>2.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
         <v>7</v>
@@ -2943,7 +3010,7 @@
         <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
         <v>22</v>
@@ -2967,7 +3034,7 @@
         <v>13</v>
       </c>
       <c r="AQ14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR14" t="n">
         <v>14</v>
@@ -3000,10 +3067,10 @@
         <v>15</v>
       </c>
       <c r="BB14" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BC14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-3-2011-12</t>
+          <t>2012-03-03</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" t="n">
         <v>15</v>
       </c>
       <c r="G15" t="n">
-        <v>0.595</v>
+        <v>0.583</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3050,37 +3117,37 @@
         <v>36.4</v>
       </c>
       <c r="J15" t="n">
-        <v>81.5</v>
+        <v>81.7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.447</v>
+        <v>0.445</v>
       </c>
       <c r="L15" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="M15" t="n">
         <v>11.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.328</v>
+        <v>0.322</v>
       </c>
       <c r="O15" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P15" t="n">
         <v>23</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.758</v>
+        <v>0.754</v>
       </c>
       <c r="R15" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S15" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T15" t="n">
-        <v>41.8</v>
+        <v>42.1</v>
       </c>
       <c r="U15" t="n">
         <v>19</v>
@@ -3089,46 +3156,46 @@
         <v>15.1</v>
       </c>
       <c r="W15" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="X15" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF15" t="n">
         <v>9</v>
       </c>
       <c r="AG15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI15" t="n">
         <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK15" t="n">
         <v>15</v>
@@ -3140,7 +3207,7 @@
         <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO15" t="n">
         <v>11</v>
@@ -3149,43 +3216,43 @@
         <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AS15" t="n">
         <v>23</v>
       </c>
       <c r="AT15" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AU15" t="n">
         <v>24</v>
       </c>
       <c r="AV15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA15" t="n">
         <v>14</v>
       </c>
       <c r="BB15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-3-2011-12</t>
+          <t>2012-03-03</t>
         </is>
       </c>
     </row>
@@ -3292,13 +3359,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
       </c>
       <c r="AF16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG16" t="n">
         <v>3</v>
@@ -3310,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="AJ16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK16" t="n">
         <v>1</v>
@@ -3343,7 +3410,7 @@
         <v>14</v>
       </c>
       <c r="AU16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV16" t="n">
         <v>18</v>
@@ -3352,7 +3419,7 @@
         <v>7</v>
       </c>
       <c r="AX16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY16" t="n">
         <v>3</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-3-2011-12</t>
+          <t>2012-03-03</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" t="n">
         <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17" t="n">
-        <v>0.378</v>
+        <v>0.389</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
@@ -3414,49 +3481,49 @@
         <v>36</v>
       </c>
       <c r="J17" t="n">
-        <v>85</v>
+        <v>85.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.424</v>
+        <v>0.423</v>
       </c>
       <c r="L17" t="n">
         <v>6.6</v>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.329</v>
+        <v>0.328</v>
       </c>
       <c r="O17" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P17" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.791</v>
+        <v>0.795</v>
       </c>
       <c r="R17" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S17" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="T17" t="n">
-        <v>41.5</v>
+        <v>41.8</v>
       </c>
       <c r="U17" t="n">
         <v>21.4</v>
       </c>
       <c r="V17" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X17" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y17" t="n">
         <v>4.9</v>
@@ -3465,16 +3532,16 @@
         <v>19.9</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="AB17" t="n">
         <v>95.3</v>
       </c>
       <c r="AC17" t="n">
-        <v>-2.7</v>
+        <v>-2.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
@@ -3486,25 +3553,25 @@
         <v>22</v>
       </c>
       <c r="AH17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL17" t="n">
         <v>15</v>
       </c>
       <c r="AM17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO17" t="n">
         <v>15</v>
@@ -3513,7 +3580,7 @@
         <v>21</v>
       </c>
       <c r="AQ17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR17" t="n">
         <v>4</v>
@@ -3522,13 +3589,13 @@
         <v>28</v>
       </c>
       <c r="AT17" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AU17" t="n">
         <v>11</v>
       </c>
       <c r="AV17" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AW17" t="n">
         <v>12</v>
@@ -3549,7 +3616,7 @@
         <v>14</v>
       </c>
       <c r="BC17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-3-2011-12</t>
+          <t>2012-03-03</t>
         </is>
       </c>
     </row>
@@ -3578,64 +3645,64 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" t="n">
         <v>19</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>0.486</v>
       </c>
       <c r="H18" t="n">
         <v>48.1</v>
       </c>
       <c r="I18" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="J18" t="n">
-        <v>81.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.433</v>
+        <v>0.43</v>
       </c>
       <c r="L18" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="M18" t="n">
         <v>19.8</v>
       </c>
       <c r="N18" t="n">
-        <v>0.326</v>
+        <v>0.32</v>
       </c>
       <c r="O18" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="P18" t="n">
         <v>26.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.774</v>
+        <v>0.772</v>
       </c>
       <c r="R18" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S18" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T18" t="n">
-        <v>44.5</v>
+        <v>44.7</v>
       </c>
       <c r="U18" t="n">
         <v>18.9</v>
       </c>
       <c r="V18" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W18" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X18" t="n">
         <v>4.2</v>
@@ -3644,37 +3711,37 @@
         <v>5.8</v>
       </c>
       <c r="Z18" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK18" t="n">
         <v>22</v>
@@ -3686,7 +3753,7 @@
         <v>13</v>
       </c>
       <c r="AN18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
         <v>5</v>
@@ -3704,7 +3771,7 @@
         <v>9</v>
       </c>
       <c r="AT18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU18" t="n">
         <v>25</v>
@@ -3713,10 +3780,10 @@
         <v>27</v>
       </c>
       <c r="AW18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY18" t="n">
         <v>23</v>
@@ -3728,10 +3795,10 @@
         <v>3</v>
       </c>
       <c r="BB18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-3-2011-12</t>
+          <t>2012-03-03</t>
         </is>
       </c>
     </row>
@@ -3838,28 +3905,28 @@
         <v>-6.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
         <v>26</v>
       </c>
       <c r="AF19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG19" t="n">
         <v>27</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI19" t="n">
         <v>29</v>
       </c>
       <c r="AJ19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
         <v>2</v>
@@ -3892,7 +3959,7 @@
         <v>21</v>
       </c>
       <c r="AV19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW19" t="n">
         <v>22</v>
@@ -3904,7 +3971,7 @@
         <v>20</v>
       </c>
       <c r="AZ19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA19" t="n">
         <v>13</v>
@@ -3913,7 +3980,7 @@
         <v>25</v>
       </c>
       <c r="BC19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-3-2011-12</t>
+          <t>2012-03-03</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20" t="n">
-        <v>0.243</v>
+        <v>0.25</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3960,10 +4027,10 @@
         <v>34.5</v>
       </c>
       <c r="J20" t="n">
-        <v>79.2</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L20" t="n">
         <v>3.9</v>
@@ -3972,7 +4039,7 @@
         <v>12.5</v>
       </c>
       <c r="N20" t="n">
-        <v>0.315</v>
+        <v>0.314</v>
       </c>
       <c r="O20" t="n">
         <v>15.5</v>
@@ -3981,31 +4048,31 @@
         <v>20.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.746</v>
+        <v>0.748</v>
       </c>
       <c r="R20" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S20" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T20" t="n">
         <v>42.3</v>
       </c>
       <c r="U20" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V20" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W20" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X20" t="n">
         <v>4.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
         <v>20.7</v>
@@ -4014,13 +4081,13 @@
         <v>18.4</v>
       </c>
       <c r="AB20" t="n">
-        <v>88.40000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>-5.3</v>
+        <v>-4.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4032,28 +4099,28 @@
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ20" t="n">
         <v>25</v>
       </c>
       <c r="AK20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL20" t="n">
         <v>28</v>
       </c>
       <c r="AM20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO20" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AP20" t="n">
         <v>25</v>
@@ -4062,7 +4129,7 @@
         <v>17</v>
       </c>
       <c r="AR20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AS20" t="n">
         <v>20</v>
@@ -4074,16 +4141,16 @@
         <v>20</v>
       </c>
       <c r="AV20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW20" t="n">
         <v>21</v>
       </c>
       <c r="AX20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ20" t="n">
         <v>22</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-3-2011-12</t>
+          <t>2012-03-03</t>
         </is>
       </c>
     </row>
@@ -4202,10 +4269,10 @@
         <v>1.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
         <v>16</v>
@@ -4250,7 +4317,7 @@
         <v>18</v>
       </c>
       <c r="AT21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU21" t="n">
         <v>23</v>
@@ -4277,7 +4344,7 @@
         <v>12</v>
       </c>
       <c r="BC21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-3-2011-12</t>
+          <t>2012-03-03</t>
         </is>
       </c>
     </row>
@@ -4306,85 +4373,85 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" t="n">
         <v>29</v>
       </c>
       <c r="F22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>0.784</v>
+        <v>0.806</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="J22" t="n">
-        <v>77.8</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.472</v>
+        <v>0.474</v>
       </c>
       <c r="L22" t="n">
         <v>6.8</v>
       </c>
       <c r="M22" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.346</v>
+        <v>0.349</v>
       </c>
       <c r="O22" t="n">
         <v>21.8</v>
       </c>
       <c r="P22" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.795</v>
+        <v>0.794</v>
       </c>
       <c r="R22" t="n">
         <v>10.6</v>
       </c>
       <c r="S22" t="n">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="T22" t="n">
-        <v>43.6</v>
+        <v>43.8</v>
       </c>
       <c r="U22" t="n">
-        <v>17.9</v>
+        <v>18.1</v>
       </c>
       <c r="V22" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="W22" t="n">
         <v>7.7</v>
       </c>
       <c r="X22" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB22" t="n">
-        <v>102.1</v>
+        <v>102.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4393,10 +4460,10 @@
         <v>1</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
         <v>10</v>
@@ -4423,7 +4490,7 @@
         <v>2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR22" t="n">
         <v>22</v>
@@ -4432,10 +4499,10 @@
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU22" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-3-2011-12</t>
+          <t>2012-03-03</t>
         </is>
       </c>
     </row>
@@ -4488,85 +4555,85 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" t="n">
         <v>14</v>
       </c>
       <c r="G23" t="n">
-        <v>0.632</v>
+        <v>0.622</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
       </c>
       <c r="I23" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="J23" t="n">
-        <v>77.5</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.439</v>
+        <v>0.437</v>
       </c>
       <c r="L23" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="M23" t="n">
         <v>26.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.39</v>
+        <v>0.386</v>
       </c>
       <c r="O23" t="n">
         <v>15.7</v>
       </c>
       <c r="P23" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.652</v>
+        <v>0.654</v>
       </c>
       <c r="R23" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S23" t="n">
         <v>32.3</v>
       </c>
       <c r="T23" t="n">
-        <v>43.4</v>
+        <v>43.3</v>
       </c>
       <c r="U23" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="V23" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="W23" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X23" t="n">
         <v>4.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="AA23" t="n">
         <v>20.7</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.09999999999999</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>5</v>
@@ -4578,16 +4645,16 @@
         <v>6</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ23" t="n">
         <v>29</v>
       </c>
       <c r="AK23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4599,7 +4666,7 @@
         <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP23" t="n">
         <v>10</v>
@@ -4614,13 +4681,13 @@
         <v>8</v>
       </c>
       <c r="AT23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AV23" t="n">
         <v>17</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>19</v>
       </c>
       <c r="AW23" t="n">
         <v>27</v>
@@ -4629,7 +4696,7 @@
         <v>26</v>
       </c>
       <c r="AY23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ23" t="n">
         <v>5</v>
@@ -4638,10 +4705,10 @@
         <v>10</v>
       </c>
       <c r="BB23" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BC23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-3-2011-12</t>
+          <t>2012-03-03</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>7.2</v>
       </c>
       <c r="AD24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE24" t="n">
         <v>6</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>7</v>
       </c>
       <c r="AF24" t="n">
         <v>9</v>
@@ -4760,7 +4827,7 @@
         <v>9</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
         <v>5</v>
@@ -4772,10 +4839,10 @@
         <v>11</v>
       </c>
       <c r="AL24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN24" t="n">
         <v>8</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-3-2011-12</t>
+          <t>2012-03-03</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-2</v>
       </c>
       <c r="AD25" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
         <v>20</v>
@@ -4954,7 +5021,7 @@
         <v>14</v>
       </c>
       <c r="AL25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM25" t="n">
         <v>14</v>
@@ -4972,13 +5039,13 @@
         <v>10</v>
       </c>
       <c r="AR25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS25" t="n">
         <v>14</v>
       </c>
       <c r="AT25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU25" t="n">
         <v>4</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-3-2011-12</t>
+          <t>2012-03-03</t>
         </is>
       </c>
     </row>
@@ -5034,19 +5101,19 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" t="n">
         <v>18</v>
       </c>
       <c r="F26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G26" t="n">
-        <v>0.486</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I26" t="n">
         <v>37.1</v>
@@ -5055,40 +5122,40 @@
         <v>82.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L26" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M26" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N26" t="n">
-        <v>0.34</v>
+        <v>0.338</v>
       </c>
       <c r="O26" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P26" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.784</v>
+        <v>0.786</v>
       </c>
       <c r="R26" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S26" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="T26" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U26" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="V26" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W26" t="n">
         <v>8.699999999999999</v>
@@ -5100,34 +5167,34 @@
         <v>5.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="AA26" t="n">
         <v>20.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.5</v>
+        <v>98.2</v>
       </c>
       <c r="AC26" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH26" t="n">
         <v>4</v>
       </c>
-      <c r="AD26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>5</v>
-      </c>
       <c r="AI26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ26" t="n">
         <v>6</v>
@@ -5136,7 +5203,7 @@
         <v>13</v>
       </c>
       <c r="AL26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AM26" t="n">
         <v>12</v>
@@ -5157,16 +5224,16 @@
         <v>19</v>
       </c>
       <c r="AS26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AT26" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AU26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AW26" t="n">
         <v>5</v>
@@ -5175,10 +5242,10 @@
         <v>9</v>
       </c>
       <c r="AY26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ26" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA26" t="n">
         <v>9</v>
@@ -5187,7 +5254,7 @@
         <v>5</v>
       </c>
       <c r="BC26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-3-2011-12</t>
+          <t>2012-03-03</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-7.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5306,13 +5373,13 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK27" t="n">
         <v>30</v>
@@ -5321,10 +5388,10 @@
         <v>17</v>
       </c>
       <c r="AM27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO27" t="n">
         <v>8</v>
@@ -5339,10 +5406,10 @@
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-3-2011-12</t>
+          <t>2012-03-03</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>4.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5509,7 +5576,7 @@
         <v>2</v>
       </c>
       <c r="AO28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP28" t="n">
         <v>19</v>
@@ -5524,7 +5591,7 @@
         <v>11</v>
       </c>
       <c r="AT28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU28" t="n">
         <v>5</v>
@@ -5539,7 +5606,7 @@
         <v>25</v>
       </c>
       <c r="AY28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5551,7 +5618,7 @@
         <v>4</v>
       </c>
       <c r="BC28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-3-2011-12</t>
+          <t>2012-03-03</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-4.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
         <v>26</v>
@@ -5670,7 +5737,7 @@
         <v>26</v>
       </c>
       <c r="AH29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
         <v>26</v>
@@ -5706,13 +5773,13 @@
         <v>13</v>
       </c>
       <c r="AT29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AU29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW29" t="n">
         <v>26</v>
@@ -5721,7 +5788,7 @@
         <v>16</v>
       </c>
       <c r="AY29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-3-2011-12</t>
+          <t>2012-03-03</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30" t="n">
         <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G30" t="n">
-        <v>0.472</v>
+        <v>0.486</v>
       </c>
       <c r="H30" t="n">
         <v>48.4</v>
@@ -5786,67 +5853,67 @@
         <v>0.452</v>
       </c>
       <c r="L30" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="M30" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="N30" t="n">
-        <v>0.299</v>
+        <v>0.3</v>
       </c>
       <c r="O30" t="n">
         <v>18.5</v>
       </c>
       <c r="P30" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.746</v>
+        <v>0.745</v>
       </c>
       <c r="R30" t="n">
         <v>12.6</v>
       </c>
       <c r="S30" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T30" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U30" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="V30" t="n">
         <v>14.2</v>
       </c>
       <c r="W30" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X30" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="Y30" t="n">
         <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB30" t="n">
-        <v>96.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>-1.1</v>
+        <v>-0.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AE30" t="n">
         <v>19</v>
       </c>
       <c r="AF30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG30" t="n">
         <v>19</v>
@@ -5855,7 +5922,7 @@
         <v>7</v>
       </c>
       <c r="AI30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ30" t="n">
         <v>10</v>
@@ -5867,7 +5934,7 @@
         <v>29</v>
       </c>
       <c r="AM30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN30" t="n">
         <v>30</v>
@@ -5879,19 +5946,19 @@
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR30" t="n">
         <v>6</v>
       </c>
       <c r="AS30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AV30" t="n">
         <v>7</v>
@@ -5900,13 +5967,13 @@
         <v>10</v>
       </c>
       <c r="AX30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY30" t="n">
         <v>24</v>
       </c>
       <c r="AZ30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA30" t="n">
         <v>8</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-3-2011-12</t>
+          <t>2012-03-03</t>
         </is>
       </c>
     </row>
@@ -5944,100 +6011,100 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
         <v>28</v>
       </c>
       <c r="G31" t="n">
-        <v>0.222</v>
+        <v>0.2</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J31" t="n">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.431</v>
+        <v>0.43</v>
       </c>
       <c r="L31" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="M31" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="N31" t="n">
-        <v>0.318</v>
+        <v>0.316</v>
       </c>
       <c r="O31" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P31" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.728</v>
+        <v>0.731</v>
       </c>
       <c r="R31" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S31" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="T31" t="n">
-        <v>41.7</v>
+        <v>41.4</v>
       </c>
       <c r="U31" t="n">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="V31" t="n">
         <v>15.7</v>
       </c>
       <c r="W31" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X31" t="n">
         <v>7.2</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z31" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA31" t="n">
         <v>18.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>92.90000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI31" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ31" t="n">
         <v>3</v>
@@ -6049,7 +6116,7 @@
         <v>25</v>
       </c>
       <c r="AM31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN31" t="n">
         <v>24</v>
@@ -6067,16 +6134,16 @@
         <v>13</v>
       </c>
       <c r="AS31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT31" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AU31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AW31" t="n">
         <v>11</v>
@@ -6085,13 +6152,13 @@
         <v>2</v>
       </c>
       <c r="AY31" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ31" t="n">
         <v>27</v>
       </c>
       <c r="BA31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB31" t="n">
         <v>24</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-3-2011-12</t>
+          <t>2012-03-03</t>
         </is>
       </c>
     </row>
